--- a/Ventas.xlsx
+++ b/Ventas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="1080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Code</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Benefits</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Nuevo producto</t>
+  </si>
+  <si>
+    <t>22/06/2022</t>
   </si>
 </sst>
 </file>
@@ -405,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,6 +446,38 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
